--- a/结果/CHB-MIT数据集/分类结果.xlsx
+++ b/结果/CHB-MIT数据集/分类结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\CHB-MIT数据集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D717A387-09E9-4B22-9D1B-BC54AD3F5685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D984FA73-3322-4006-8700-7DF64B1DF36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F86ECC38-C563-4285-A4EA-C9D634E42B48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F86ECC38-C563-4285-A4EA-C9D634E42B48}"/>
   </bookViews>
   <sheets>
     <sheet name="SKD" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="34">
   <si>
     <t>病例chb01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,50 @@
     <t>spe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病例chb01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病例chb03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stacking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本熵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -191,6 +235,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -324,7 +371,6 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Origin"/>
-      <sheetName val="CD1"/>
       <sheetName val="CD2"/>
       <sheetName val="CD3"/>
       <sheetName val="CD4"/>
@@ -335,91 +381,42 @@
       <sheetData sheetId="0">
         <row r="33">
           <cell r="A33">
-            <v>88.472220000000007</v>
+            <v>65.347226666666671</v>
           </cell>
           <cell r="B33">
-            <v>88.718526666666648</v>
+            <v>72.352126666666663</v>
           </cell>
           <cell r="C33">
-            <v>88.234893333333332</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="32">
-          <cell r="A32">
-            <v>82.916679999999999</v>
-          </cell>
-          <cell r="B32">
-            <v>84.484913333333324</v>
-          </cell>
-          <cell r="C32">
-            <v>82.087479999999999</v>
-          </cell>
-        </row>
-      </sheetData>
+            <v>59.052980000000012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="33">
           <cell r="A33">
-            <v>82.013893333333328</v>
+            <v>64.722220000000007</v>
           </cell>
           <cell r="B33">
-            <v>82.11206</v>
+            <v>56.295319999999997</v>
           </cell>
           <cell r="C33">
-            <v>82.111760000000004</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
+            <v>73.690193333333355</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
         <row r="33">
           <cell r="A33">
-            <v>86.11112</v>
+            <v>67.638899999999992</v>
           </cell>
           <cell r="B33">
-            <v>87.099986666666666</v>
+            <v>64.403279999999995</v>
           </cell>
           <cell r="C33">
-            <v>85.28306666666667</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="33">
-          <cell r="A33">
-            <v>94.375006666666664</v>
-          </cell>
-          <cell r="B33">
-            <v>93.808260000000018</v>
-          </cell>
-          <cell r="C33">
-            <v>94.945786666666663</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="32">
-          <cell r="A32">
-            <v>92.152773333333329</v>
-          </cell>
-          <cell r="B32">
-            <v>91.963473333333326</v>
-          </cell>
-          <cell r="C32">
-            <v>92.263986666666653</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="33">
-          <cell r="A33">
-            <v>95.902760000000001</v>
-          </cell>
-          <cell r="B33">
-            <v>95.426586666666665</v>
-          </cell>
-          <cell r="C33">
-            <v>96.252600000000001</v>
+            <v>71.33641333333334</v>
           </cell>
         </row>
       </sheetData>
@@ -440,57 +437,45 @@
       <sheetName val="multi_attri"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0">
+        <row r="33">
+          <cell r="A33">
+            <v>61.736113333333336</v>
+          </cell>
+          <cell r="B33">
+            <v>64.063986666666651</v>
+          </cell>
+          <cell r="C33">
+            <v>59.938620000000007</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
-        <row r="34">
-          <cell r="A34">
-            <v>53.263886666666664</v>
-          </cell>
-          <cell r="B34">
-            <v>53.080000000000005</v>
-          </cell>
-          <cell r="C34">
-            <v>53.427246666666669</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
         <row r="33">
           <cell r="A33">
-            <v>58.81944</v>
+            <v>63.472233333333328</v>
           </cell>
           <cell r="B33">
-            <v>58.970826666666667</v>
+            <v>63.268673333333332</v>
           </cell>
           <cell r="C33">
-            <v>59.480273333333329</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="33">
-          <cell r="A33">
-            <v>58.055546666666672</v>
-          </cell>
-          <cell r="B33">
-            <v>58.69853333333333</v>
-          </cell>
-          <cell r="C33">
-            <v>57.521719999999995</v>
-          </cell>
-        </row>
-      </sheetData>
+            <v>64.098679999999987</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5">
         <row r="33">
           <cell r="A33">
-            <v>63.47222</v>
+            <v>69.583320000000001</v>
           </cell>
           <cell r="B33">
-            <v>62.07418666666667</v>
+            <v>70.962733333333333</v>
           </cell>
           <cell r="C33">
-            <v>64.953013333333345</v>
+            <v>68.328033333333323</v>
           </cell>
         </row>
       </sheetData>
@@ -574,96 +559,91 @@
       <sheetData sheetId="0">
         <row r="33">
           <cell r="A33">
-            <v>90.55556</v>
+            <v>92.986093333333343</v>
           </cell>
           <cell r="B33">
-            <v>95.20107999999999</v>
+            <v>91.237046666666657</v>
           </cell>
           <cell r="C33">
-            <v>86.274433333333334</v>
+            <v>94.712986666666666</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="33">
           <cell r="A33">
-            <v>87.916666666666671</v>
+            <v>93.611113333333336</v>
           </cell>
           <cell r="B33">
-            <v>96.864513333333335</v>
+            <v>93.706306666666677</v>
           </cell>
           <cell r="C33">
-            <v>79.039433333333335</v>
+            <v>93.589313333333337</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="33">
           <cell r="A33">
-            <v>87.43056</v>
+            <v>90.972213333333329</v>
           </cell>
           <cell r="B33">
-            <v>95.868719999999996</v>
+            <v>85.848120000000009</v>
           </cell>
           <cell r="C33">
-            <v>79.092779999999991</v>
+            <v>96.006959999999992</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>acc</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>89.652773333333329</v>
-          </cell>
-          <cell r="B34">
-            <v>95.792193333333344</v>
-          </cell>
-          <cell r="C34">
-            <v>83.622720000000001</v>
+        <row r="33">
+          <cell r="A33">
+            <v>97.986113333333336</v>
+          </cell>
+          <cell r="B33">
+            <v>96.907133333333348</v>
+          </cell>
+          <cell r="C33">
+            <v>99.065566666666669</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="33">
           <cell r="A33">
-            <v>94.166666666666671</v>
+            <v>94.999993333333336</v>
           </cell>
           <cell r="B33">
-            <v>95.74150666666668</v>
+            <v>94.33895333333335</v>
           </cell>
           <cell r="C33">
-            <v>92.758459999999999</v>
+            <v>95.867126666666678</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="33">
           <cell r="A33">
-            <v>93.888893333333328</v>
+            <v>95.972220000000007</v>
           </cell>
           <cell r="B33">
-            <v>95.672580000000011</v>
+            <v>95.989819999999995</v>
           </cell>
           <cell r="C33">
-            <v>92.027566666666672</v>
+            <v>95.958706666666686</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="33">
           <cell r="A33">
-            <v>96.666666666666671</v>
+            <v>98.055546666666672</v>
           </cell>
           <cell r="B33">
-            <v>95.766799999999975</v>
+            <v>98.259886666666674</v>
           </cell>
           <cell r="C33">
-            <v>97.54264666666667</v>
+            <v>98.020380000000017</v>
           </cell>
         </row>
       </sheetData>
@@ -673,6 +653,115 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Origin"/>
+      <sheetName val="CD1"/>
+      <sheetName val="CD2"/>
+      <sheetName val="CD3"/>
+      <sheetName val="CD4"/>
+      <sheetName val="CD5"/>
+      <sheetName val="multi_attri"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="33">
+          <cell r="A33">
+            <v>91.458333333333329</v>
+          </cell>
+          <cell r="B33">
+            <v>91.18959333333332</v>
+          </cell>
+          <cell r="C33">
+            <v>91.493300000000005</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="33">
+          <cell r="A33">
+            <v>91.94444</v>
+          </cell>
+          <cell r="B33">
+            <v>92.464173333333335</v>
+          </cell>
+          <cell r="C33">
+            <v>91.263673333333344</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="A33">
+            <v>87.361100000000008</v>
+          </cell>
+          <cell r="B33">
+            <v>86.827806666666675</v>
+          </cell>
+          <cell r="C33">
+            <v>87.671639999999996</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="33">
+          <cell r="A33">
+            <v>97.152773333333329</v>
+          </cell>
+          <cell r="B33">
+            <v>96.511426666666665</v>
+          </cell>
+          <cell r="C33">
+            <v>97.800946666666675</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="33">
+          <cell r="A33">
+            <v>95.208333333333329</v>
+          </cell>
+          <cell r="B33">
+            <v>95.314959999999999</v>
+          </cell>
+          <cell r="C33">
+            <v>95.107006666666663</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="34">
+          <cell r="A34">
+            <v>94.861113333333336</v>
+          </cell>
+          <cell r="B34">
+            <v>94.744313333333338</v>
+          </cell>
+          <cell r="C34">
+            <v>95.255733333333325</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="33">
+          <cell r="A33">
+            <v>98.541653333333343</v>
+          </cell>
+          <cell r="B33">
+            <v>98.119459999999989</v>
+          </cell>
+          <cell r="C33">
+            <v>98.884659999999997</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -743,284 +832,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Origin"/>
-      <sheetName val="CD2"/>
-      <sheetName val="CD3"/>
-      <sheetName val="CD4"/>
-      <sheetName val="CD5"/>
-      <sheetName val="multi_attri"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="33">
-          <cell r="A33">
-            <v>65.347226666666671</v>
-          </cell>
-          <cell r="B33">
-            <v>72.352126666666663</v>
-          </cell>
-          <cell r="C33">
-            <v>59.052980000000012</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="A33">
-            <v>64.722220000000007</v>
-          </cell>
-          <cell r="B33">
-            <v>56.295319999999997</v>
-          </cell>
-          <cell r="C33">
-            <v>73.690193333333355</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5">
-        <row r="33">
-          <cell r="A33">
-            <v>67.638899999999992</v>
-          </cell>
-          <cell r="B33">
-            <v>64.403279999999995</v>
-          </cell>
-          <cell r="C33">
-            <v>71.33641333333334</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Origin"/>
-      <sheetName val="CD1"/>
-      <sheetName val="CD2"/>
-      <sheetName val="CD3"/>
-      <sheetName val="CD4"/>
-      <sheetName val="CD5"/>
-      <sheetName val="multi_attri"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="33">
-          <cell r="A33">
-            <v>92.986093333333343</v>
-          </cell>
-          <cell r="B33">
-            <v>91.237046666666657</v>
-          </cell>
-          <cell r="C33">
-            <v>94.712986666666666</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="33">
-          <cell r="A33">
-            <v>93.611113333333336</v>
-          </cell>
-          <cell r="B33">
-            <v>93.706306666666677</v>
-          </cell>
-          <cell r="C33">
-            <v>93.589313333333337</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="A33">
-            <v>90.972213333333329</v>
-          </cell>
-          <cell r="B33">
-            <v>85.848120000000009</v>
-          </cell>
-          <cell r="C33">
-            <v>96.006959999999992</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="33">
-          <cell r="A33">
-            <v>97.986113333333336</v>
-          </cell>
-          <cell r="B33">
-            <v>96.907133333333348</v>
-          </cell>
-          <cell r="C33">
-            <v>99.065566666666669</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="33">
-          <cell r="A33">
-            <v>94.999993333333336</v>
-          </cell>
-          <cell r="B33">
-            <v>94.33895333333335</v>
-          </cell>
-          <cell r="C33">
-            <v>95.867126666666678</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="33">
-          <cell r="A33">
-            <v>95.972220000000007</v>
-          </cell>
-          <cell r="B33">
-            <v>95.989819999999995</v>
-          </cell>
-          <cell r="C33">
-            <v>95.958706666666686</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="33">
-          <cell r="A33">
-            <v>98.055546666666672</v>
-          </cell>
-          <cell r="B33">
-            <v>98.259886666666674</v>
-          </cell>
-          <cell r="C33">
-            <v>98.020380000000017</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Origin"/>
-      <sheetName val="CD1"/>
-      <sheetName val="CD2"/>
-      <sheetName val="CD3"/>
-      <sheetName val="CD4"/>
-      <sheetName val="CD5"/>
-      <sheetName val="multi_attri"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="33">
-          <cell r="A33">
-            <v>92.083333333333329</v>
-          </cell>
-          <cell r="B33">
-            <v>95.848453333333339</v>
-          </cell>
-          <cell r="C33">
-            <v>88.158393333333336</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="33">
-          <cell r="A33">
-            <v>86.597226666666671</v>
-          </cell>
-          <cell r="B33">
-            <v>93.572940000000003</v>
-          </cell>
-          <cell r="C33">
-            <v>79.752800000000008</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="A33">
-            <v>87.638893333333328</v>
-          </cell>
-          <cell r="B33">
-            <v>94.87418000000001</v>
-          </cell>
-          <cell r="C33">
-            <v>80.454120000000003</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="33">
-          <cell r="A33">
-            <v>90.138886666666664</v>
-          </cell>
-          <cell r="B33">
-            <v>94.986173333333326</v>
-          </cell>
-          <cell r="C33">
-            <v>85.075086666666692</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="33">
-          <cell r="A33">
-            <v>95.625</v>
-          </cell>
-          <cell r="B33">
-            <v>95.262313333333339</v>
-          </cell>
-          <cell r="C33">
-            <v>96.036720000000003</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="33">
-          <cell r="A33">
-            <v>94.513893333333328</v>
-          </cell>
-          <cell r="B33">
-            <v>94.236033333333353</v>
-          </cell>
-          <cell r="C33">
-            <v>94.739339999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="33">
-          <cell r="A33">
-            <v>96.458333333333329</v>
-          </cell>
-          <cell r="B33">
-            <v>95.540266666666668</v>
-          </cell>
-          <cell r="C33">
-            <v>97.382693333333364</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1091,7 +903,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1103,45 +915,280 @@
       <sheetName val="multi_attri"/>
     </sheetNames>
     <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="34">
+          <cell r="A34">
+            <v>53.263886666666664</v>
+          </cell>
+          <cell r="B34">
+            <v>53.080000000000005</v>
+          </cell>
+          <cell r="C34">
+            <v>53.427246666666669</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="33">
+          <cell r="A33">
+            <v>58.81944</v>
+          </cell>
+          <cell r="B33">
+            <v>58.970826666666667</v>
+          </cell>
+          <cell r="C33">
+            <v>59.480273333333329</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="33">
+          <cell r="A33">
+            <v>58.055546666666672</v>
+          </cell>
+          <cell r="B33">
+            <v>58.69853333333333</v>
+          </cell>
+          <cell r="C33">
+            <v>57.521719999999995</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="33">
+          <cell r="A33">
+            <v>63.47222</v>
+          </cell>
+          <cell r="B33">
+            <v>62.07418666666667</v>
+          </cell>
+          <cell r="C33">
+            <v>64.953013333333345</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Origin"/>
+      <sheetName val="CD1"/>
+      <sheetName val="CD2"/>
+      <sheetName val="CD3"/>
+      <sheetName val="CD4"/>
+      <sheetName val="CD5"/>
+      <sheetName val="multi_attri"/>
+    </sheetNames>
+    <sheetDataSet>
       <sheetData sheetId="0">
         <row r="33">
           <cell r="A33">
-            <v>61.736113333333336</v>
+            <v>90.55556</v>
           </cell>
           <cell r="B33">
-            <v>64.063986666666651</v>
+            <v>95.20107999999999</v>
           </cell>
           <cell r="C33">
-            <v>59.938620000000007</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+            <v>86.274433333333334</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="33">
+          <cell r="A33">
+            <v>87.916666666666671</v>
+          </cell>
+          <cell r="B33">
+            <v>96.864513333333335</v>
+          </cell>
+          <cell r="C33">
+            <v>79.039433333333335</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2">
         <row r="33">
           <cell r="A33">
-            <v>63.472233333333328</v>
+            <v>87.43056</v>
           </cell>
           <cell r="B33">
-            <v>63.268673333333332</v>
+            <v>95.868719999999996</v>
           </cell>
           <cell r="C33">
-            <v>64.098679999999987</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+            <v>79.092779999999991</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>acc</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>89.652773333333329</v>
+          </cell>
+          <cell r="B34">
+            <v>95.792193333333344</v>
+          </cell>
+          <cell r="C34">
+            <v>83.622720000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="33">
+          <cell r="A33">
+            <v>94.166666666666671</v>
+          </cell>
+          <cell r="B33">
+            <v>95.74150666666668</v>
+          </cell>
+          <cell r="C33">
+            <v>92.758459999999999</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="5">
         <row r="33">
           <cell r="A33">
-            <v>69.583320000000001</v>
+            <v>93.888893333333328</v>
           </cell>
           <cell r="B33">
-            <v>70.962733333333333</v>
+            <v>95.672580000000011</v>
           </cell>
           <cell r="C33">
-            <v>68.328033333333323</v>
+            <v>92.027566666666672</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="33">
+          <cell r="A33">
+            <v>96.666666666666671</v>
+          </cell>
+          <cell r="B33">
+            <v>95.766799999999975</v>
+          </cell>
+          <cell r="C33">
+            <v>97.54264666666667</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Origin"/>
+      <sheetName val="CD1"/>
+      <sheetName val="CD2"/>
+      <sheetName val="CD3"/>
+      <sheetName val="CD4"/>
+      <sheetName val="CD5"/>
+      <sheetName val="multi_attri"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="33">
+          <cell r="A33">
+            <v>92.083333333333329</v>
+          </cell>
+          <cell r="B33">
+            <v>95.848453333333339</v>
+          </cell>
+          <cell r="C33">
+            <v>88.158393333333336</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="33">
+          <cell r="A33">
+            <v>86.597226666666671</v>
+          </cell>
+          <cell r="B33">
+            <v>93.572940000000003</v>
+          </cell>
+          <cell r="C33">
+            <v>79.752800000000008</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="A33">
+            <v>87.638893333333328</v>
+          </cell>
+          <cell r="B33">
+            <v>94.87418000000001</v>
+          </cell>
+          <cell r="C33">
+            <v>80.454120000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="33">
+          <cell r="A33">
+            <v>90.138886666666664</v>
+          </cell>
+          <cell r="B33">
+            <v>94.986173333333326</v>
+          </cell>
+          <cell r="C33">
+            <v>85.075086666666692</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="33">
+          <cell r="A33">
+            <v>95.625</v>
+          </cell>
+          <cell r="B33">
+            <v>95.262313333333339</v>
+          </cell>
+          <cell r="C33">
+            <v>96.036720000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="33">
+          <cell r="A33">
+            <v>94.513893333333328</v>
+          </cell>
+          <cell r="B33">
+            <v>94.236033333333353</v>
+          </cell>
+          <cell r="C33">
+            <v>94.739339999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="33">
+          <cell r="A33">
+            <v>96.458333333333329</v>
+          </cell>
+          <cell r="B33">
+            <v>95.540266666666668</v>
+          </cell>
+          <cell r="C33">
+            <v>97.382693333333364</v>
           </cell>
         </row>
       </sheetData>
@@ -1166,91 +1213,91 @@
       <sheetData sheetId="0">
         <row r="33">
           <cell r="A33">
-            <v>91.458333333333329</v>
+            <v>88.472220000000007</v>
           </cell>
           <cell r="B33">
-            <v>91.18959333333332</v>
+            <v>88.718526666666648</v>
           </cell>
           <cell r="C33">
-            <v>91.493300000000005</v>
+            <v>88.234893333333332</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="33">
-          <cell r="A33">
-            <v>91.94444</v>
-          </cell>
-          <cell r="B33">
-            <v>92.464173333333335</v>
-          </cell>
-          <cell r="C33">
-            <v>91.263673333333344</v>
+        <row r="32">
+          <cell r="A32">
+            <v>82.916679999999999</v>
+          </cell>
+          <cell r="B32">
+            <v>84.484913333333324</v>
+          </cell>
+          <cell r="C32">
+            <v>82.087479999999999</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="33">
           <cell r="A33">
-            <v>87.361100000000008</v>
+            <v>82.013893333333328</v>
           </cell>
           <cell r="B33">
-            <v>86.827806666666675</v>
+            <v>82.11206</v>
           </cell>
           <cell r="C33">
-            <v>87.671639999999996</v>
+            <v>82.111760000000004</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="33">
           <cell r="A33">
-            <v>97.152773333333329</v>
+            <v>86.11112</v>
           </cell>
           <cell r="B33">
-            <v>96.511426666666665</v>
+            <v>87.099986666666666</v>
           </cell>
           <cell r="C33">
-            <v>97.800946666666675</v>
+            <v>85.28306666666667</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="33">
           <cell r="A33">
-            <v>95.208333333333329</v>
+            <v>94.375006666666664</v>
           </cell>
           <cell r="B33">
-            <v>95.314959999999999</v>
+            <v>93.808260000000018</v>
           </cell>
           <cell r="C33">
-            <v>95.107006666666663</v>
+            <v>94.945786666666663</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
-        <row r="34">
-          <cell r="A34">
-            <v>94.861113333333336</v>
-          </cell>
-          <cell r="B34">
-            <v>94.744313333333338</v>
-          </cell>
-          <cell r="C34">
-            <v>95.255733333333325</v>
+        <row r="32">
+          <cell r="A32">
+            <v>92.152773333333329</v>
+          </cell>
+          <cell r="B32">
+            <v>91.963473333333326</v>
+          </cell>
+          <cell r="C32">
+            <v>92.263986666666653</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="33">
           <cell r="A33">
-            <v>98.541653333333343</v>
+            <v>95.902760000000001</v>
           </cell>
           <cell r="B33">
-            <v>98.119459999999989</v>
+            <v>95.426586666666665</v>
           </cell>
           <cell r="C33">
-            <v>98.884659999999997</v>
+            <v>96.252600000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -1558,7 +1605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9664C0D9-BC2C-4BF6-AF32-3994CA8E36F0}">
   <dimension ref="C4:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="P15" sqref="P15:P18"/>
     </sheetView>
   </sheetViews>
@@ -1638,28 +1685,28 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2">
-        <f>[5]Origin!A33</f>
+        <f>[2]Origin!A33</f>
         <v>92.986093333333343</v>
       </c>
       <c r="K6" s="2">
-        <f>[5]Origin!B33</f>
+        <f>[2]Origin!B33</f>
         <v>91.237046666666657</v>
       </c>
       <c r="L6" s="2">
-        <f>[5]Origin!C33</f>
+        <f>[2]Origin!C33</f>
         <v>94.712986666666666</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
-        <f>[9]Origin!A33</f>
+        <f>[3]Origin!A33</f>
         <v>91.458333333333329</v>
       </c>
       <c r="O6" s="2">
-        <f>[9]Origin!B33</f>
+        <f>[3]Origin!B33</f>
         <v>91.18959333333332</v>
       </c>
       <c r="P6" s="2">
-        <f>[9]Origin!C33</f>
+        <f>[3]Origin!C33</f>
         <v>91.493300000000005</v>
       </c>
       <c r="Q6" s="2"/>
@@ -1684,28 +1731,28 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2">
-        <f>[5]CD1!A33</f>
+        <f>[2]CD1!A33</f>
         <v>93.611113333333336</v>
       </c>
       <c r="K7" s="2">
-        <f>[5]CD1!B33</f>
+        <f>[2]CD1!B33</f>
         <v>93.706306666666677</v>
       </c>
       <c r="L7" s="2">
-        <f>[5]CD1!C33</f>
+        <f>[2]CD1!C33</f>
         <v>93.589313333333337</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2">
-        <f>[9]CD1!A33</f>
+        <f>[3]CD1!A33</f>
         <v>91.94444</v>
       </c>
       <c r="O7" s="2">
-        <f>[9]CD1!B33</f>
+        <f>[3]CD1!B33</f>
         <v>92.464173333333335</v>
       </c>
       <c r="P7" s="2">
-        <f>[9]CD1!C33</f>
+        <f>[3]CD1!C33</f>
         <v>91.263673333333344</v>
       </c>
       <c r="Q7" s="2"/>
@@ -1730,28 +1777,28 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
-        <f>[5]CD2!A33</f>
+        <f>[2]CD2!A33</f>
         <v>90.972213333333329</v>
       </c>
       <c r="K8" s="2">
-        <f>[5]CD2!B33</f>
+        <f>[2]CD2!B33</f>
         <v>85.848120000000009</v>
       </c>
       <c r="L8" s="2">
-        <f>[5]CD2!C33</f>
+        <f>[2]CD2!C33</f>
         <v>96.006959999999992</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
-        <f>[9]CD2!A33</f>
+        <f>[3]CD2!A33</f>
         <v>87.361100000000008</v>
       </c>
       <c r="O8" s="2">
-        <f>[9]CD2!B33</f>
+        <f>[3]CD2!B33</f>
         <v>86.827806666666675</v>
       </c>
       <c r="P8" s="2">
-        <f>[9]CD2!C33</f>
+        <f>[3]CD2!C33</f>
         <v>87.671639999999996</v>
       </c>
       <c r="Q8" s="2"/>
@@ -1776,28 +1823,28 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2">
-        <f>[5]CD3!A33</f>
+        <f>[2]CD3!A33</f>
         <v>97.986113333333336</v>
       </c>
       <c r="K9" s="2">
-        <f>[5]CD3!B33</f>
+        <f>[2]CD3!B33</f>
         <v>96.907133333333348</v>
       </c>
       <c r="L9" s="2">
-        <f>[5]CD3!C33</f>
+        <f>[2]CD3!C33</f>
         <v>99.065566666666669</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2">
-        <f>[9]CD3!A33</f>
+        <f>[3]CD3!A33</f>
         <v>97.152773333333329</v>
       </c>
       <c r="O9" s="2">
-        <f>[9]CD3!B33</f>
+        <f>[3]CD3!B33</f>
         <v>96.511426666666665</v>
       </c>
       <c r="P9" s="2">
-        <f>[9]CD3!C33</f>
+        <f>[3]CD3!C33</f>
         <v>97.800946666666675</v>
       </c>
       <c r="Q9" s="2"/>
@@ -1822,28 +1869,28 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2">
-        <f>[5]CD4!A33</f>
+        <f>[2]CD4!A33</f>
         <v>94.999993333333336</v>
       </c>
       <c r="K10" s="2">
-        <f>[5]CD4!B33</f>
+        <f>[2]CD4!B33</f>
         <v>94.33895333333335</v>
       </c>
       <c r="L10" s="2">
-        <f>[5]CD4!C33</f>
+        <f>[2]CD4!C33</f>
         <v>95.867126666666678</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2">
-        <f>[9]CD4!A33</f>
+        <f>[3]CD4!A33</f>
         <v>95.208333333333329</v>
       </c>
       <c r="O10" s="2">
-        <f>[9]CD4!B33</f>
+        <f>[3]CD4!B33</f>
         <v>95.314959999999999</v>
       </c>
       <c r="P10" s="2">
-        <f>[9]CD4!C33</f>
+        <f>[3]CD4!C33</f>
         <v>95.107006666666663</v>
       </c>
       <c r="Q10" s="2"/>
@@ -1868,28 +1915,28 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2">
-        <f>[5]CD5!A33</f>
+        <f>[2]CD5!A33</f>
         <v>95.972220000000007</v>
       </c>
       <c r="K11" s="2">
-        <f>[5]CD5!B33</f>
+        <f>[2]CD5!B33</f>
         <v>95.989819999999995</v>
       </c>
       <c r="L11" s="2">
-        <f>[5]CD5!C33</f>
+        <f>[2]CD5!C33</f>
         <v>95.958706666666686</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2">
-        <f>[9]CD5!A34</f>
+        <f>[3]CD5!A34</f>
         <v>94.861113333333336</v>
       </c>
       <c r="O11" s="2">
-        <f>[9]CD5!B34</f>
+        <f>[3]CD5!B34</f>
         <v>94.744313333333338</v>
       </c>
       <c r="P11" s="2">
-        <f>[9]CD5!C34</f>
+        <f>[3]CD5!C34</f>
         <v>95.255733333333325</v>
       </c>
       <c r="Q11" s="2"/>
@@ -1914,28 +1961,28 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2">
-        <f>[5]multi_attri!A33</f>
+        <f>[2]multi_attri!A33</f>
         <v>98.055546666666672</v>
       </c>
       <c r="K12" s="2">
-        <f>[5]multi_attri!B33</f>
+        <f>[2]multi_attri!B33</f>
         <v>98.259886666666674</v>
       </c>
       <c r="L12" s="2">
-        <f>[5]multi_attri!C33</f>
+        <f>[2]multi_attri!C33</f>
         <v>98.020380000000017</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2">
-        <f>[9]multi_attri!A33</f>
+        <f>[3]multi_attri!A33</f>
         <v>98.541653333333343</v>
       </c>
       <c r="O12" s="2">
-        <f>[9]multi_attri!B33</f>
+        <f>[3]multi_attri!B33</f>
         <v>98.119459999999989</v>
       </c>
       <c r="P12" s="2">
-        <f>[9]multi_attri!C33</f>
+        <f>[3]multi_attri!C33</f>
         <v>98.884659999999997</v>
       </c>
       <c r="Q12" s="2"/>
@@ -1978,42 +2025,42 @@
         <v>8</v>
       </c>
       <c r="E15" s="1">
-        <f>[3]CD3!A33</f>
+        <f>[4]CD3!A33</f>
         <v>57.083333333333336</v>
       </c>
       <c r="F15" s="1">
-        <f>[3]CD3!B33</f>
+        <f>[4]CD3!B33</f>
         <v>52.420380000000009</v>
       </c>
       <c r="G15" s="1">
-        <f>[3]CD3!C33</f>
+        <f>[4]CD3!C33</f>
         <v>62.498446666666673</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2">
-        <f>[7]CD3!A33</f>
+        <f>[5]CD3!A33</f>
         <v>55.694446666666664</v>
       </c>
       <c r="K15" s="2">
-        <f>[7]CD3!B33</f>
+        <f>[5]CD3!B33</f>
         <v>53.589240000000004</v>
       </c>
       <c r="L15" s="2">
-        <f>[7]CD3!C33</f>
+        <f>[5]CD3!C33</f>
         <v>58.063613333333336</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2">
-        <f>[11]CD3!A34</f>
+        <f>[6]CD3!A34</f>
         <v>53.263886666666664</v>
       </c>
       <c r="O15" s="2">
-        <f>[11]CD3!B34</f>
+        <f>[6]CD3!B34</f>
         <v>53.080000000000005</v>
       </c>
       <c r="P15" s="2">
-        <f>[11]CD3!C34</f>
+        <f>[6]CD3!C34</f>
         <v>53.427246666666669</v>
       </c>
       <c r="Q15" s="2"/>
@@ -2024,42 +2071,42 @@
         <v>9</v>
       </c>
       <c r="E16" s="1">
-        <f>[3]CD4!A33</f>
+        <f>[4]CD4!A33</f>
         <v>65.763886666666664</v>
       </c>
       <c r="F16" s="1">
-        <f>[3]CD4!B33</f>
+        <f>[4]CD4!B33</f>
         <v>74.448840000000004</v>
       </c>
       <c r="G16" s="1">
-        <f>[3]CD4!C33</f>
+        <f>[4]CD4!C33</f>
         <v>57.191673333333334</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2">
-        <f>[7]CD4!A34</f>
+        <f>[5]CD4!A34</f>
         <v>63.81944</v>
       </c>
       <c r="K16" s="2">
-        <f>[7]CD4!B34</f>
+        <f>[5]CD4!B34</f>
         <v>63.69113333333334</v>
       </c>
       <c r="L16" s="2">
-        <f>[7]CD4!C34</f>
+        <f>[5]CD4!C34</f>
         <v>63.891066666666674</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2">
-        <f>[11]CD4!A33</f>
+        <f>[6]CD4!A33</f>
         <v>58.81944</v>
       </c>
       <c r="O16" s="2">
-        <f>[11]CD4!B33</f>
+        <f>[6]CD4!B33</f>
         <v>58.970826666666667</v>
       </c>
       <c r="P16" s="2">
-        <f>[11]CD4!C33</f>
+        <f>[6]CD4!C33</f>
         <v>59.480273333333329</v>
       </c>
       <c r="Q16" s="2"/>
@@ -2070,42 +2117,42 @@
         <v>10</v>
       </c>
       <c r="E17" s="1">
-        <f>[3]CD5!A33</f>
+        <f>[4]CD5!A33</f>
         <v>66.041660000000007</v>
       </c>
       <c r="F17" s="1">
-        <f>[3]CD5!B33</f>
+        <f>[4]CD5!B33</f>
         <v>85.123539999999991</v>
       </c>
       <c r="G17" s="1">
-        <f>[3]CD5!C33</f>
+        <f>[4]CD5!C33</f>
         <v>47.433146666666659</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2">
-        <f>[7]CD5!A33</f>
+        <f>[5]CD5!A33</f>
         <v>61.180546666666672</v>
       </c>
       <c r="K17" s="2">
-        <f>[7]CD5!B33</f>
+        <f>[5]CD5!B33</f>
         <v>63.342406666666662</v>
       </c>
       <c r="L17" s="2">
-        <f>[7]CD5!C33</f>
+        <f>[5]CD5!C33</f>
         <v>59.01098666666666</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2">
-        <f>[11]CD5!A33</f>
+        <f>[6]CD5!A33</f>
         <v>58.055546666666672</v>
       </c>
       <c r="O17" s="2">
-        <f>[11]CD5!B33</f>
+        <f>[6]CD5!B33</f>
         <v>58.69853333333333</v>
       </c>
       <c r="P17" s="2">
-        <f>[11]CD5!C33</f>
+        <f>[6]CD5!C33</f>
         <v>57.521719999999995</v>
       </c>
       <c r="Q17" s="2"/>
@@ -2116,42 +2163,42 @@
         <v>11</v>
       </c>
       <c r="E18" s="1">
-        <f>[3]multi_attri!A33</f>
+        <f>[4]multi_attri!A33</f>
         <v>71.250006666666664</v>
       </c>
       <c r="F18" s="1">
-        <f>[3]multi_attri!B33</f>
+        <f>[4]multi_attri!B33</f>
         <v>80.370599999999996</v>
       </c>
       <c r="G18" s="1">
-        <f>[3]multi_attri!C33</f>
+        <f>[4]multi_attri!C33</f>
         <v>62.468553333333332</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2">
-        <f>[7]multi_attri!A33</f>
+        <f>[5]multi_attri!A33</f>
         <v>68.749993333333336</v>
       </c>
       <c r="K18" s="2">
-        <f>[7]multi_attri!B33</f>
+        <f>[5]multi_attri!B33</f>
         <v>71.92886</v>
       </c>
       <c r="L18" s="2">
-        <f>[7]multi_attri!C33</f>
+        <f>[5]multi_attri!C33</f>
         <v>66.221186666666668</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2">
-        <f>[11]multi_attri!A33</f>
+        <f>[6]multi_attri!A33</f>
         <v>63.47222</v>
       </c>
       <c r="O18" s="2">
-        <f>[11]multi_attri!B33</f>
+        <f>[6]multi_attri!B33</f>
         <v>62.07418666666667</v>
       </c>
       <c r="P18" s="2">
-        <f>[11]multi_attri!C33</f>
+        <f>[6]multi_attri!C33</f>
         <v>64.953013333333345</v>
       </c>
       <c r="Q18" s="2"/>
@@ -2331,42 +2378,42 @@
         <v>1</v>
       </c>
       <c r="E40" s="2">
-        <f>[2]Origin!A33</f>
+        <f>[7]Origin!A33</f>
         <v>90.55556</v>
       </c>
       <c r="F40" s="2">
-        <f>[2]Origin!B33</f>
+        <f>[7]Origin!B33</f>
         <v>95.20107999999999</v>
       </c>
       <c r="G40" s="2">
-        <f>[2]Origin!C33</f>
+        <f>[7]Origin!C33</f>
         <v>86.274433333333334</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2">
-        <f>[6]Origin!A33</f>
+        <f>[8]Origin!A33</f>
         <v>92.083333333333329</v>
       </c>
       <c r="K40" s="2">
-        <f>[6]Origin!B33</f>
+        <f>[8]Origin!B33</f>
         <v>95.848453333333339</v>
       </c>
       <c r="L40" s="2">
-        <f>[6]Origin!C33</f>
+        <f>[8]Origin!C33</f>
         <v>88.158393333333336</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2">
-        <f>[10]Origin!A33</f>
+        <f>[9]Origin!A33</f>
         <v>88.472220000000007</v>
       </c>
       <c r="O40" s="2">
-        <f>[10]Origin!B33</f>
+        <f>[9]Origin!B33</f>
         <v>88.718526666666648</v>
       </c>
       <c r="P40" s="2">
-        <f>[10]Origin!C33</f>
+        <f>[9]Origin!C33</f>
         <v>88.234893333333332</v>
       </c>
       <c r="Q40" s="2"/>
@@ -2376,42 +2423,42 @@
         <v>2</v>
       </c>
       <c r="E41" s="2">
-        <f>[2]CD1!A33</f>
+        <f>[7]CD1!A33</f>
         <v>87.916666666666671</v>
       </c>
       <c r="F41" s="2">
-        <f>[2]CD1!B33</f>
+        <f>[7]CD1!B33</f>
         <v>96.864513333333335</v>
       </c>
       <c r="G41" s="2">
-        <f>[2]CD1!C33</f>
+        <f>[7]CD1!C33</f>
         <v>79.039433333333335</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2">
-        <f>[6]CD1!A33</f>
+        <f>[8]CD1!A33</f>
         <v>86.597226666666671</v>
       </c>
       <c r="K41" s="2">
-        <f>[6]CD1!B33</f>
+        <f>[8]CD1!B33</f>
         <v>93.572940000000003</v>
       </c>
       <c r="L41" s="2">
-        <f>[6]CD1!C33</f>
+        <f>[8]CD1!C33</f>
         <v>79.752800000000008</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2">
-        <f>[10]CD1!A32</f>
+        <f>[9]CD1!A32</f>
         <v>82.916679999999999</v>
       </c>
       <c r="O41" s="2">
-        <f>[10]CD1!B32</f>
+        <f>[9]CD1!B32</f>
         <v>84.484913333333324</v>
       </c>
       <c r="P41" s="2">
-        <f>[10]CD1!C32</f>
+        <f>[9]CD1!C32</f>
         <v>82.087479999999999</v>
       </c>
       <c r="Q41" s="2"/>
@@ -2421,42 +2468,42 @@
         <v>3</v>
       </c>
       <c r="E42" s="2">
-        <f>[2]CD2!A33</f>
+        <f>[7]CD2!A33</f>
         <v>87.43056</v>
       </c>
       <c r="F42" s="2">
-        <f>[2]CD2!B33</f>
+        <f>[7]CD2!B33</f>
         <v>95.868719999999996</v>
       </c>
       <c r="G42" s="2">
-        <f>[2]CD2!C33</f>
+        <f>[7]CD2!C33</f>
         <v>79.092779999999991</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2">
-        <f>[6]CD2!A33</f>
+        <f>[8]CD2!A33</f>
         <v>87.638893333333328</v>
       </c>
       <c r="K42" s="2">
-        <f>[6]CD2!B33</f>
+        <f>[8]CD2!B33</f>
         <v>94.87418000000001</v>
       </c>
       <c r="L42" s="2">
-        <f>[6]CD2!C33</f>
+        <f>[8]CD2!C33</f>
         <v>80.454120000000003</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2">
-        <f>[10]CD2!A33</f>
+        <f>[9]CD2!A33</f>
         <v>82.013893333333328</v>
       </c>
       <c r="O42" s="2">
-        <f>[10]CD2!B33</f>
+        <f>[9]CD2!B33</f>
         <v>82.11206</v>
       </c>
       <c r="P42" s="2">
-        <f>[10]CD2!C33</f>
+        <f>[9]CD2!C33</f>
         <v>82.111760000000004</v>
       </c>
       <c r="Q42" s="2"/>
@@ -2466,42 +2513,42 @@
         <v>4</v>
       </c>
       <c r="E43" s="2">
-        <f>[2]CD3!A34</f>
+        <f>[7]CD3!A34</f>
         <v>89.652773333333329</v>
       </c>
       <c r="F43" s="2">
-        <f>[2]CD3!B34</f>
+        <f>[7]CD3!B34</f>
         <v>95.792193333333344</v>
       </c>
       <c r="G43" s="2">
-        <f>[2]CD3!C34</f>
+        <f>[7]CD3!C34</f>
         <v>83.622720000000001</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2">
-        <f>[6]CD3!A33</f>
+        <f>[8]CD3!A33</f>
         <v>90.138886666666664</v>
       </c>
       <c r="K43" s="2">
-        <f>[6]CD3!B33</f>
+        <f>[8]CD3!B33</f>
         <v>94.986173333333326</v>
       </c>
       <c r="L43" s="2">
-        <f>[6]CD3!C33</f>
+        <f>[8]CD3!C33</f>
         <v>85.075086666666692</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2">
-        <f>[10]CD3!A33</f>
+        <f>[9]CD3!A33</f>
         <v>86.11112</v>
       </c>
       <c r="O43" s="2">
-        <f>[10]CD3!B33</f>
+        <f>[9]CD3!B33</f>
         <v>87.099986666666666</v>
       </c>
       <c r="P43" s="2">
-        <f>[10]CD3!C33</f>
+        <f>[9]CD3!C33</f>
         <v>85.28306666666667</v>
       </c>
       <c r="Q43" s="2"/>
@@ -2511,42 +2558,42 @@
         <v>5</v>
       </c>
       <c r="E44" s="2">
-        <f>[2]CD4!A33</f>
+        <f>[7]CD4!A33</f>
         <v>94.166666666666671</v>
       </c>
       <c r="F44" s="2">
-        <f>[2]CD4!B33</f>
+        <f>[7]CD4!B33</f>
         <v>95.74150666666668</v>
       </c>
       <c r="G44" s="2">
-        <f>[2]CD4!C33</f>
+        <f>[7]CD4!C33</f>
         <v>92.758459999999999</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2">
-        <f>[6]CD4!A33</f>
+        <f>[8]CD4!A33</f>
         <v>95.625</v>
       </c>
       <c r="K44" s="2">
-        <f>[6]CD4!B33</f>
+        <f>[8]CD4!B33</f>
         <v>95.262313333333339</v>
       </c>
       <c r="L44" s="2">
-        <f>[6]CD4!C33</f>
+        <f>[8]CD4!C33</f>
         <v>96.036720000000003</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2">
-        <f>[10]CD4!A33</f>
+        <f>[9]CD4!A33</f>
         <v>94.375006666666664</v>
       </c>
       <c r="O44" s="2">
-        <f>[10]CD4!B33</f>
+        <f>[9]CD4!B33</f>
         <v>93.808260000000018</v>
       </c>
       <c r="P44" s="2">
-        <f>[10]CD4!C33</f>
+        <f>[9]CD4!C33</f>
         <v>94.945786666666663</v>
       </c>
       <c r="Q44" s="2"/>
@@ -2556,42 +2603,42 @@
         <v>6</v>
       </c>
       <c r="E45" s="2">
-        <f>[2]CD5!A33</f>
+        <f>[7]CD5!A33</f>
         <v>93.888893333333328</v>
       </c>
       <c r="F45" s="2">
-        <f>[2]CD5!B33</f>
+        <f>[7]CD5!B33</f>
         <v>95.672580000000011</v>
       </c>
       <c r="G45" s="2">
-        <f>[2]CD5!C33</f>
+        <f>[7]CD5!C33</f>
         <v>92.027566666666672</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2">
-        <f>[6]CD5!A33</f>
+        <f>[8]CD5!A33</f>
         <v>94.513893333333328</v>
       </c>
       <c r="K45" s="2">
-        <f>[6]CD5!B33</f>
+        <f>[8]CD5!B33</f>
         <v>94.236033333333353</v>
       </c>
       <c r="L45" s="2">
-        <f>[6]CD5!C33</f>
+        <f>[8]CD5!C33</f>
         <v>94.739339999999999</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2">
-        <f>[10]CD5!A32</f>
+        <f>[9]CD5!A32</f>
         <v>92.152773333333329</v>
       </c>
       <c r="O45" s="2">
-        <f>[10]CD5!B32</f>
+        <f>[9]CD5!B32</f>
         <v>91.963473333333326</v>
       </c>
       <c r="P45" s="2">
-        <f>[10]CD5!C32</f>
+        <f>[9]CD5!C32</f>
         <v>92.263986666666653</v>
       </c>
       <c r="Q45" s="2"/>
@@ -2601,42 +2648,42 @@
         <v>7</v>
       </c>
       <c r="E46" s="2">
-        <f>[2]multi_attri!A33</f>
+        <f>[7]multi_attri!A33</f>
         <v>96.666666666666671</v>
       </c>
       <c r="F46" s="2">
-        <f>[2]multi_attri!B33</f>
+        <f>[7]multi_attri!B33</f>
         <v>95.766799999999975</v>
       </c>
       <c r="G46" s="2">
-        <f>[2]multi_attri!C33</f>
+        <f>[7]multi_attri!C33</f>
         <v>97.54264666666667</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2">
-        <f>[6]multi_attri!A33</f>
+        <f>[8]multi_attri!A33</f>
         <v>96.458333333333329</v>
       </c>
       <c r="K46" s="2">
-        <f>[6]multi_attri!B33</f>
+        <f>[8]multi_attri!B33</f>
         <v>95.540266666666668</v>
       </c>
       <c r="L46" s="2">
-        <f>[6]multi_attri!C33</f>
+        <f>[8]multi_attri!C33</f>
         <v>97.382693333333364</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2">
-        <f>[10]multi_attri!A33</f>
+        <f>[9]multi_attri!A33</f>
         <v>95.902760000000001</v>
       </c>
       <c r="O46" s="2">
-        <f>[10]multi_attri!B33</f>
+        <f>[9]multi_attri!B33</f>
         <v>95.426586666666665</v>
       </c>
       <c r="P46" s="2">
-        <f>[10]multi_attri!C33</f>
+        <f>[9]multi_attri!C33</f>
         <v>96.252600000000001</v>
       </c>
       <c r="Q46" s="2"/>
@@ -2676,29 +2723,29 @@
         <v>13</v>
       </c>
       <c r="E49" s="2">
-        <f>[4]Origin!A33</f>
+        <f>[10]Origin!A33</f>
         <v>65.347226666666671</v>
       </c>
       <c r="F49" s="2">
-        <f>[4]Origin!B33</f>
+        <f>[10]Origin!B33</f>
         <v>72.352126666666663</v>
       </c>
       <c r="G49" s="2">
-        <f>[4]Origin!C33</f>
+        <f>[10]Origin!C33</f>
         <v>59.052980000000012</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2">
-        <f>[8]Origin!A33</f>
+        <f>[11]Origin!A33</f>
         <v>61.736113333333336</v>
       </c>
       <c r="K49" s="2">
-        <f>[8]Origin!B33</f>
+        <f>[11]Origin!B33</f>
         <v>64.063986666666651</v>
       </c>
       <c r="L49" s="2">
-        <f>[8]Origin!C33</f>
+        <f>[11]Origin!C33</f>
         <v>59.938620000000007</v>
       </c>
       <c r="M49" s="2"/>
@@ -2721,29 +2768,29 @@
         <v>8</v>
       </c>
       <c r="E50" s="2">
-        <f>[4]CD3!A33</f>
+        <f>[10]CD3!A33</f>
         <v>64.722220000000007</v>
       </c>
       <c r="F50" s="2">
-        <f>[4]CD3!B33</f>
+        <f>[10]CD3!B33</f>
         <v>56.295319999999997</v>
       </c>
       <c r="G50" s="2">
-        <f>[4]CD3!C33</f>
+        <f>[10]CD3!C33</f>
         <v>73.690193333333355</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2">
-        <f>[8]CD3!A33</f>
+        <f>[11]CD3!A33</f>
         <v>63.472233333333328</v>
       </c>
       <c r="K50" s="2">
-        <f>[8]CD3!B33</f>
+        <f>[11]CD3!B33</f>
         <v>63.268673333333332</v>
       </c>
       <c r="L50" s="2">
-        <f>[8]CD3!C33</f>
+        <f>[11]CD3!C33</f>
         <v>64.098679999999987</v>
       </c>
       <c r="M50" s="2"/>
@@ -2766,29 +2813,29 @@
         <v>11</v>
       </c>
       <c r="E51" s="2">
-        <f>[4]multi_attri!A33</f>
+        <f>[10]multi_attri!A33</f>
         <v>67.638899999999992</v>
       </c>
       <c r="F51" s="2">
-        <f>[4]multi_attri!B33</f>
+        <f>[10]multi_attri!B33</f>
         <v>64.403279999999995</v>
       </c>
       <c r="G51" s="2">
-        <f>[4]multi_attri!C33</f>
+        <f>[10]multi_attri!C33</f>
         <v>71.33641333333334</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2">
-        <f>[8]multi_attri!A33</f>
+        <f>[11]multi_attri!A33</f>
         <v>69.583320000000001</v>
       </c>
       <c r="K51" s="2">
-        <f>[8]multi_attri!B33</f>
+        <f>[11]multi_attri!B33</f>
         <v>70.962733333333333</v>
       </c>
       <c r="L51" s="2">
-        <f>[8]multi_attri!C33</f>
+        <f>[11]multi_attri!C33</f>
         <v>68.328033333333323</v>
       </c>
       <c r="M51" s="2"/>
@@ -2981,14 +3028,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F476DC0-D57E-4631-8AE7-9170EE54DD0B}">
   <dimension ref="C5:Q156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15:Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51:M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:17" x14ac:dyDescent="0.25">
@@ -4317,7 +4367,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -4332,52 +4382,106 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="J50" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="J51" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0.64583330000000005</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0.62222200000000005</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0.66666000000000003</v>
+      </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.98958330000000005</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.980769</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
+      <c r="J52" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0.61458332999999998</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0.57406999999999997</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0.66666000000000003</v>
+      </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -4392,7 +4496,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -4407,7 +4511,7 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -4422,7 +4526,7 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -4437,248 +4541,326 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
+      <c r="K57" t="s">
+        <v>23</v>
+      </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
+      <c r="L58" t="s">
+        <v>24</v>
+      </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E60" s="1"/>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.99479167000000002</v>
+      </c>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="G60" s="1">
+        <v>45</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
+      <c r="L60" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0.73177082999999998</v>
+      </c>
       <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
+      <c r="O60" s="1">
+        <v>28</v>
+      </c>
+      <c r="P60" s="1">
+        <v>17</v>
+      </c>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E61" s="1"/>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.98958332999999998</v>
+      </c>
       <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>51</v>
+      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
+      <c r="L61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0.68229167000000002</v>
+      </c>
+      <c r="N61" s="3"/>
+      <c r="O61" s="1">
+        <v>17</v>
+      </c>
+      <c r="P61" s="1">
+        <v>34</v>
+      </c>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E62" s="1"/>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="E62" s="3"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
+      <c r="M62" s="3"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
+      <c r="L63" t="s">
+        <v>27</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0.64583330000000005</v>
+      </c>
+      <c r="N63" s="3"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
+      <c r="M64" s="3"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
+      <c r="M65" s="3"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
+      <c r="M66" s="3"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>28</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
+      <c r="L67" t="s">
+        <v>28</v>
+      </c>
+      <c r="M67" s="3"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
+      <c r="M68" s="3"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E69" s="1"/>
+    <row r="69" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.96354167000000002</v>
+      </c>
       <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="G69" s="1">
+        <v>44</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
+      <c r="L69" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0.71354167000000002</v>
+      </c>
+      <c r="N69" s="3"/>
+      <c r="O69" s="1">
+        <v>31</v>
+      </c>
+      <c r="P69" s="1">
+        <v>14</v>
+      </c>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E70" s="1"/>
+    <row r="70" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0.96354167000000002</v>
+      </c>
       <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>51</v>
+      </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
+      <c r="L70" t="s">
+        <v>26</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0.70572917000000002</v>
+      </c>
+      <c r="N70" s="3"/>
+      <c r="O70" s="1">
+        <v>23</v>
+      </c>
+      <c r="P70" s="1">
+        <v>28</v>
+      </c>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E71" s="1"/>
+    <row r="71" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="E71" s="3"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E72" s="1"/>
+    <row r="72" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0.98958330000000005</v>
+      </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
+      <c r="L72" t="s">
+        <v>27</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0.61458332999999998</v>
+      </c>
+      <c r="N72" s="3"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E73" s="1"/>
+    <row r="73" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="E73" s="3"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -4686,14 +4868,14 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
+      <c r="M73" s="3"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E74" s="1"/>
+    <row r="74" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="E74" s="3"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -4701,13 +4883,13 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
+      <c r="M74" s="3"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -4716,13 +4898,13 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
+      <c r="M75" s="3"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -4731,13 +4913,13 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
+      <c r="M76" s="3"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -4752,7 +4934,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -4767,7 +4949,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -4782,7 +4964,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
